--- a/#documentacao/Cronograma de atividades TCC.xlsx
+++ b/#documentacao/Cronograma de atividades TCC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolox\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETEC\TCC\Lanchonete-Mamaezona-TCC\Lanchonete-Mamaezona-TCC\#documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{111E808B-E3BE-4249-9388-632CDC527B1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A85F87D-9C3C-41BE-9999-296F843D2D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Atividades</t>
   </si>
@@ -139,12 +138,21 @@
   </si>
   <si>
     <t>10 Dias</t>
+  </si>
+  <si>
+    <t>IF = Interface</t>
+  </si>
+  <si>
+    <t>PG = Programação</t>
+  </si>
+  <si>
+    <t>DM = Documentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +373,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616D7CE-8218-4E76-90A4-75F59C622B37}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,9 +710,10 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -708,8 +726,11 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -722,8 +743,11 @@
       <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -736,8 +760,11 @@
       <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -751,7 +778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -765,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -779,7 +806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -793,7 +820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -807,7 +834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -821,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -835,7 +862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -849,7 +876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -863,7 +890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -877,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -891,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -905,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
